--- a/QueriesExcel/7.xlsx
+++ b/QueriesExcel/7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD33CB04-9907-4600-A05B-18552BAE4BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C161D71-B098-4459-B5C7-56D8ABFA120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CE36988-F895-4509-B800-3BD4188047A9}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId2"/>
+    <pivotCache cacheId="9" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -540,7 +540,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1032,7 +1032,7 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1078,18 +1078,48 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
@@ -1111,7 +1141,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.960234722224" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2C2ACE97-BF35-4698-922C-DFD03513A562}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.031938888889" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2C2ACE97-BF35-4698-922C-DFD03513A562}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
     <cacheField name="[Measures].[Total Line UK]" caption="Total Line UK" numFmtId="0" hierarchy="156" level="32767"/>
@@ -1531,7 +1561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0D5A2C1-8957-4B0E-BCED-5225B927043A}" name="PivotTable1" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0D5A2C1-8957-4B0E-BCED-5225B927043A}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:E474" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3145,7 +3175,7 @@
     <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="5">
+    <format dxfId="15">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3154,7 +3184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3163,7 +3193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3172,7 +3202,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="12">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3693,16 +3723,7 @@
   <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B474"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisCol" max="4" activeRow="3" activeCol="1" previousRow="3" previousCol="1" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3770,7 +3791,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -3796,7 +3817,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -3822,7 +3843,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -3863,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -3889,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -3915,10 +3936,10 @@
         <v>31.5</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>196.875</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>39.375</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3941,10 +3962,10 @@
         <v>163.95750000000001</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>1366.3125</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>204.9469</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3967,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>1437.5</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -3993,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -4019,10 +4040,10 @@
         <v>50.52</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>1341.9375</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4045,10 +4066,10 @@
         <v>205.2</v>
       </c>
       <c r="D28" s="5">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4071,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>487.5</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -4097,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
+        <v>484.375</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -4123,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="5">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -4149,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="5">
-        <v>0</v>
+        <v>3948.75</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -4175,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -4201,10 +4222,10 @@
         <v>591.6</v>
       </c>
       <c r="D40" s="5">
-        <v>0</v>
+        <v>4930</v>
       </c>
       <c r="E40" s="5">
-        <v>0</v>
+        <v>739.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4230,7 +4251,7 @@
         <v>115</v>
       </c>
       <c r="B43" s="6">
-        <v>0</v>
+        <v>870.4</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -4256,10 +4277,10 @@
         <v>116</v>
       </c>
       <c r="B45" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D45" s="5">
         <v>250</v>
@@ -4282,10 +4303,10 @@
         <v>117</v>
       </c>
       <c r="B47" s="6">
-        <v>0</v>
+        <v>843.2</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D47" s="5">
         <v>1054</v>
@@ -4308,10 +4329,10 @@
         <v>118</v>
       </c>
       <c r="B49" s="6">
-        <v>0</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="D49" s="5">
         <v>193.5</v>
@@ -4334,10 +4355,10 @@
         <v>119</v>
       </c>
       <c r="B51" s="6">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="D51" s="5">
         <v>2280</v>
@@ -4360,7 +4381,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -4386,10 +4407,10 @@
         <v>121</v>
       </c>
       <c r="B55" s="6">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="D55" s="5">
         <v>157.5</v>
@@ -4412,7 +4433,7 @@
         <v>122</v>
       </c>
       <c r="B57" s="6">
-        <v>0</v>
+        <v>597.6</v>
       </c>
       <c r="C57" s="6">
         <v>0</v>
@@ -4438,7 +4459,7 @@
         <v>123</v>
       </c>
       <c r="B59" s="6">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -4464,7 +4485,7 @@
         <v>124</v>
       </c>
       <c r="B61" s="6">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C61" s="6">
         <v>0</v>
@@ -4490,10 +4511,10 @@
         <v>125</v>
       </c>
       <c r="B63" s="6">
-        <v>0</v>
+        <v>606.24</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="D63" s="5">
         <v>757.8</v>
@@ -4516,7 +4537,7 @@
         <v>124</v>
       </c>
       <c r="B65" s="6">
-        <v>0</v>
+        <v>307.2</v>
       </c>
       <c r="C65" s="6">
         <v>0</v>
@@ -4542,7 +4563,7 @@
         <v>126</v>
       </c>
       <c r="B67" s="6">
-        <v>0</v>
+        <v>310.68</v>
       </c>
       <c r="C67" s="6">
         <v>0</v>
@@ -4568,7 +4589,7 @@
         <v>127</v>
       </c>
       <c r="B69" s="6">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="C69" s="6">
         <v>0</v>
@@ -4594,10 +4615,10 @@
         <v>128</v>
       </c>
       <c r="B71" s="6">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C71" s="6">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="D71" s="5">
         <v>387.5</v>
@@ -4620,10 +4641,10 @@
         <v>129</v>
       </c>
       <c r="B73" s="6">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="C73" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D73" s="5">
         <v>252</v>
@@ -4646,7 +4667,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="6">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="C75" s="6">
         <v>0</v>
@@ -4672,10 +4693,10 @@
         <v>130</v>
       </c>
       <c r="B77" s="6">
-        <v>0</v>
+        <v>113.28</v>
       </c>
       <c r="C77" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D77" s="5">
         <v>141.6</v>
@@ -4698,10 +4719,10 @@
         <v>124</v>
       </c>
       <c r="B79" s="6">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D79" s="5">
         <v>406.25</v>
@@ -4733,10 +4754,10 @@
         <v>115</v>
       </c>
       <c r="B82" s="6">
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="C82" s="6">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="D82" s="5">
         <v>2380</v>
@@ -4759,7 +4780,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C84" s="6">
         <v>0</v>
@@ -4785,10 +4806,10 @@
         <v>118</v>
       </c>
       <c r="B86" s="6">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="C86" s="6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="D86" s="5">
         <v>322.5</v>
@@ -4811,10 +4832,10 @@
         <v>119</v>
       </c>
       <c r="B88" s="6">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="C88" s="6">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="D88" s="5">
         <v>2280</v>
@@ -4837,7 +4858,7 @@
         <v>121</v>
       </c>
       <c r="B90" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C90" s="6">
         <v>0</v>
@@ -4863,7 +4884,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="6">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="C92" s="6">
         <v>0</v>
@@ -4889,7 +4910,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="6">
-        <v>0</v>
+        <v>123.2</v>
       </c>
       <c r="C94" s="6">
         <v>0</v>
@@ -4915,7 +4936,7 @@
         <v>133</v>
       </c>
       <c r="B96" s="6">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C96" s="6">
         <v>0</v>
@@ -4941,7 +4962,7 @@
         <v>128</v>
       </c>
       <c r="B98" s="6">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="C98" s="6">
         <v>0</v>
@@ -4967,10 +4988,10 @@
         <v>116</v>
       </c>
       <c r="B100" s="6">
-        <v>0</v>
+        <v>596.72</v>
       </c>
       <c r="C100" s="6">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="D100" s="5">
         <v>745.9</v>
@@ -4993,10 +5014,10 @@
         <v>127</v>
       </c>
       <c r="B102" s="6">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C102" s="6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="D102" s="5">
         <v>315</v>
@@ -5019,7 +5040,7 @@
         <v>127</v>
       </c>
       <c r="B104" s="6">
-        <v>0</v>
+        <v>364.8</v>
       </c>
       <c r="C104" s="6">
         <v>0</v>
@@ -5045,10 +5066,10 @@
         <v>115</v>
       </c>
       <c r="B106" s="6">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="C106" s="6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D106" s="5">
         <v>1100</v>
@@ -5071,7 +5092,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="6">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="C108" s="6">
         <v>0</v>
@@ -5097,7 +5118,7 @@
         <v>132</v>
       </c>
       <c r="B110" s="6">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="C110" s="6">
         <v>0</v>
@@ -5123,7 +5144,7 @@
         <v>128</v>
       </c>
       <c r="B112" s="6">
-        <v>0</v>
+        <v>127.68</v>
       </c>
       <c r="C112" s="6">
         <v>0</v>
@@ -5164,10 +5185,10 @@
         <v>60</v>
       </c>
       <c r="D115" s="5">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="E115" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -5190,10 +5211,10 @@
         <v>114</v>
       </c>
       <c r="D117" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="E117" s="5">
-        <v>0</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -5225,10 +5246,10 @@
         <v>21.6</v>
       </c>
       <c r="D120" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E120" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5251,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="5">
-        <v>0</v>
+        <v>687.5</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -5277,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="5">
-        <v>0</v>
+        <v>99.375</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -5303,10 +5324,10 @@
         <v>171</v>
       </c>
       <c r="D126" s="5">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="E126" s="5">
-        <v>0</v>
+        <v>213.75</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5338,10 +5359,10 @@
         <v>168.75</v>
       </c>
       <c r="D129" s="5">
-        <v>0</v>
+        <v>7187.5</v>
       </c>
       <c r="E129" s="5">
-        <v>0</v>
+        <v>210.9375</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5364,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="5">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -5390,10 +5411,10 @@
         <v>165</v>
       </c>
       <c r="D133" s="5">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="E133" s="5">
-        <v>0</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5416,10 +5437,10 @@
         <v>31.25</v>
       </c>
       <c r="D135" s="5">
-        <v>0</v>
+        <v>781.25</v>
       </c>
       <c r="E135" s="5">
-        <v>0</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5442,10 +5463,10 @@
         <v>28.8</v>
       </c>
       <c r="D137" s="5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E137" s="5">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5468,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="5">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -5494,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="5">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -5520,10 +5541,10 @@
         <v>25.2</v>
       </c>
       <c r="D143" s="5">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="E143" s="5">
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5546,10 +5567,10 @@
         <v>13.6</v>
       </c>
       <c r="D145" s="5">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E145" s="5">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5572,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="5">
-        <v>0</v>
+        <v>993.75</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -5598,10 +5619,10 @@
         <v>60</v>
       </c>
       <c r="D149" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E149" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -5624,10 +5645,10 @@
         <v>110.25</v>
       </c>
       <c r="D151" s="5">
-        <v>0</v>
+        <v>918.75</v>
       </c>
       <c r="E151" s="5">
-        <v>0</v>
+        <v>137.8125</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -5650,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="5">
-        <v>0</v>
+        <v>19.375</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -5676,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="D155" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -5702,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="5">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -5728,10 +5749,10 @@
         <v>225</v>
       </c>
       <c r="D159" s="5">
-        <v>0</v>
+        <v>3187.5</v>
       </c>
       <c r="E159" s="5">
-        <v>0</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5754,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="5">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -5789,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="D164" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -5815,10 +5836,10 @@
         <v>92</v>
       </c>
       <c r="D166" s="5">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -5841,10 +5862,10 @@
         <v>297.5</v>
       </c>
       <c r="D168" s="5">
-        <v>0</v>
+        <v>1487.5</v>
       </c>
       <c r="E168" s="5">
-        <v>0</v>
+        <v>371.875</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5867,10 +5888,10 @@
         <v>144</v>
       </c>
       <c r="D170" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5893,10 +5914,10 @@
         <v>110</v>
       </c>
       <c r="D172" s="5">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="E172" s="5">
-        <v>0</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5919,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="D174" s="5">
-        <v>0</v>
+        <v>9881.25</v>
       </c>
       <c r="E174" s="5">
         <v>0</v>
@@ -5945,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="D176" s="5">
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="E176" s="5">
         <v>0</v>
@@ -5971,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="5">
-        <v>0</v>
+        <v>1862</v>
       </c>
       <c r="E178" s="5">
         <v>0</v>
@@ -5997,10 +6018,10 @@
         <v>103.125</v>
       </c>
       <c r="D180" s="5">
-        <v>0</v>
+        <v>1171.875</v>
       </c>
       <c r="E180" s="5">
-        <v>0</v>
+        <v>128.90620000000001</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -6023,10 +6044,10 @@
         <v>324</v>
       </c>
       <c r="D182" s="5">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E182" s="5">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -6049,10 +6070,10 @@
         <v>7.8075000000000001</v>
       </c>
       <c r="D184" s="5">
-        <v>0</v>
+        <v>1756.6875</v>
       </c>
       <c r="E184" s="5">
-        <v>0</v>
+        <v>9.7593999999999994</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -6075,10 +6096,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="E186" s="5">
-        <v>0</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -6101,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="D188" s="5">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="E188" s="5">
         <v>0</v>
@@ -6127,10 +6148,10 @@
         <v>4.3425000000000002</v>
       </c>
       <c r="D190" s="5">
-        <v>0</v>
+        <v>277.4375</v>
       </c>
       <c r="E190" s="5">
-        <v>0</v>
+        <v>5.4280999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -6153,10 +6174,10 @@
         <v>14.4</v>
       </c>
       <c r="D192" s="5">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="E192" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -6179,10 +6200,10 @@
         <v>31.574999999999999</v>
       </c>
       <c r="D194" s="5">
-        <v>0</v>
+        <v>789.375</v>
       </c>
       <c r="E194" s="5">
-        <v>0</v>
+        <v>39.468800000000002</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -6205,10 +6226,10 @@
         <v>381.6</v>
       </c>
       <c r="D196" s="5">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="E196" s="5">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -6231,10 +6252,10 @@
         <v>320</v>
       </c>
       <c r="D198" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E198" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -6257,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="5">
-        <v>0</v>
+        <v>2173.75</v>
       </c>
       <c r="E200" s="5">
         <v>0</v>
@@ -6283,10 +6304,10 @@
         <v>103.56</v>
       </c>
       <c r="D202" s="5">
-        <v>0</v>
+        <v>854.25</v>
       </c>
       <c r="E202" s="5">
-        <v>0</v>
+        <v>129.44999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -6309,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="D204" s="5">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E204" s="5">
         <v>0</v>
@@ -6335,10 +6356,10 @@
         <v>25.2</v>
       </c>
       <c r="D206" s="5">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="E206" s="5">
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6361,10 +6382,10 @@
         <v>6.5</v>
       </c>
       <c r="D208" s="5">
-        <v>0</v>
+        <v>487.5</v>
       </c>
       <c r="E208" s="5">
-        <v>0</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -6387,10 +6408,10 @@
         <v>77.25</v>
       </c>
       <c r="D210" s="5">
-        <v>0</v>
+        <v>543.75</v>
       </c>
       <c r="E210" s="5">
-        <v>0</v>
+        <v>96.5625</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6413,10 +6434,10 @@
         <v>26.175000000000001</v>
       </c>
       <c r="D212" s="5">
-        <v>0</v>
+        <v>654.375</v>
       </c>
       <c r="E212" s="5">
-        <v>0</v>
+        <v>32.718800000000002</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6439,10 +6460,10 @@
         <v>142.5</v>
       </c>
       <c r="D214" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="E214" s="5">
-        <v>0</v>
+        <v>178.125</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6465,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="D216" s="5">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="E216" s="5">
         <v>0</v>
@@ -6491,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="D218" s="5">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="E218" s="5">
         <v>0</v>
@@ -6517,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="D220" s="5">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="E220" s="5">
         <v>0</v>
@@ -6543,10 +6564,10 @@
         <v>142.5</v>
       </c>
       <c r="D222" s="5">
-        <v>0</v>
+        <v>1187.5</v>
       </c>
       <c r="E222" s="5">
-        <v>0</v>
+        <v>178.125</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6569,10 +6590,10 @@
         <v>35</v>
       </c>
       <c r="D224" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E224" s="5">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6595,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="D226" s="5">
-        <v>0</v>
+        <v>546.875</v>
       </c>
       <c r="E226" s="5">
         <v>0</v>
@@ -6621,10 +6642,10 @@
         <v>340.2</v>
       </c>
       <c r="D228" s="5">
-        <v>0</v>
+        <v>2126.25</v>
       </c>
       <c r="E228" s="5">
-        <v>0</v>
+        <v>425.25</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6647,10 +6668,10 @@
         <v>80</v>
       </c>
       <c r="D230" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E230" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6673,10 +6694,10 @@
         <v>85.5</v>
       </c>
       <c r="D232" s="5">
-        <v>0</v>
+        <v>534.375</v>
       </c>
       <c r="E232" s="5">
-        <v>0</v>
+        <v>106.875</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6699,10 +6720,10 @@
         <v>49.3</v>
       </c>
       <c r="D234" s="5">
-        <v>0</v>
+        <v>1232.5</v>
       </c>
       <c r="E234" s="5">
-        <v>0</v>
+        <v>61.625</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6725,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="D236" s="5">
-        <v>0</v>
+        <v>186.25</v>
       </c>
       <c r="E236" s="5">
         <v>0</v>
@@ -6751,10 +6772,10 @@
         <v>9</v>
       </c>
       <c r="D238" s="5">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E238" s="5">
-        <v>0</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6777,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="D240" s="5">
-        <v>0</v>
+        <v>329.25</v>
       </c>
       <c r="E240" s="5">
         <v>0</v>
@@ -6803,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="D242" s="5">
-        <v>0</v>
+        <v>1246.875</v>
       </c>
       <c r="E242" s="5">
         <v>0</v>
@@ -6838,10 +6859,10 @@
         <v>67.5</v>
       </c>
       <c r="D245" s="5">
-        <v>0</v>
+        <v>337.5</v>
       </c>
       <c r="E245" s="5">
-        <v>0</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -6864,10 +6885,10 @@
         <v>161.25</v>
       </c>
       <c r="D247" s="5">
-        <v>0</v>
+        <v>806.25</v>
       </c>
       <c r="E247" s="5">
-        <v>0</v>
+        <v>201.5625</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -6890,10 +6911,10 @@
         <v>139.5</v>
       </c>
       <c r="D249" s="5">
-        <v>0</v>
+        <v>697.5</v>
       </c>
       <c r="E249" s="5">
-        <v>0</v>
+        <v>174.375</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -6916,10 +6937,10 @@
         <v>113.75</v>
       </c>
       <c r="D251" s="5">
-        <v>0</v>
+        <v>568.75</v>
       </c>
       <c r="E251" s="5">
-        <v>0</v>
+        <v>142.1875</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -6951,10 +6972,10 @@
         <v>4.2</v>
       </c>
       <c r="D254" s="5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E254" s="5">
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6980,7 +7001,7 @@
         <v>115</v>
       </c>
       <c r="B257" s="6">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C257" s="6">
         <v>0</v>
@@ -7006,7 +7027,7 @@
         <v>150</v>
       </c>
       <c r="B259" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C259" s="6">
         <v>0</v>
@@ -7032,7 +7053,7 @@
         <v>151</v>
       </c>
       <c r="B261" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C261" s="6">
         <v>0</v>
@@ -7058,7 +7079,7 @@
         <v>123</v>
       </c>
       <c r="B263" s="6">
-        <v>0</v>
+        <v>326.76</v>
       </c>
       <c r="C263" s="6">
         <v>0</v>
@@ -7084,7 +7105,7 @@
         <v>123</v>
       </c>
       <c r="B265" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C265" s="6">
         <v>0</v>
@@ -7110,7 +7131,7 @@
         <v>152</v>
       </c>
       <c r="B267" s="6">
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="C267" s="6">
         <v>0</v>
@@ -7151,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="D270" s="5">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="E270" s="5">
         <v>0</v>
@@ -7177,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="D272" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E272" s="5">
         <v>0</v>
@@ -7203,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="D274" s="5">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="E274" s="5">
         <v>0</v>
@@ -7232,7 +7253,7 @@
         <v>115</v>
       </c>
       <c r="B277" s="6">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C277" s="6">
         <v>0</v>
@@ -7258,7 +7279,7 @@
         <v>150</v>
       </c>
       <c r="B279" s="6">
-        <v>0</v>
+        <v>86.4</v>
       </c>
       <c r="C279" s="6">
         <v>0</v>
@@ -7284,7 +7305,7 @@
         <v>150</v>
       </c>
       <c r="B281" s="6">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C281" s="6">
         <v>0</v>
@@ -7319,10 +7340,10 @@
         <v>153</v>
       </c>
       <c r="B284" s="6">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="C284" s="6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="D284" s="5">
         <v>76.5</v>
@@ -7345,10 +7366,10 @@
         <v>123</v>
       </c>
       <c r="B286" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C286" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D286" s="5">
         <v>232.5</v>
@@ -7371,10 +7392,10 @@
         <v>124</v>
       </c>
       <c r="B288" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C288" s="6">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D288" s="5">
         <v>180</v>
@@ -7397,10 +7418,10 @@
         <v>128</v>
       </c>
       <c r="B290" s="6">
-        <v>0</v>
+        <v>58.24</v>
       </c>
       <c r="C290" s="6">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D290" s="5">
         <v>72.8</v>
@@ -7438,10 +7459,10 @@
         <v>31.2</v>
       </c>
       <c r="D293" s="5">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="E293" s="5">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -7464,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="D295" s="5">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="E295" s="5">
         <v>0</v>
@@ -7490,10 +7511,10 @@
         <v>6</v>
       </c>
       <c r="D297" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E297" s="5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -7516,10 +7537,10 @@
         <v>28.5</v>
       </c>
       <c r="D299" s="5">
-        <v>0</v>
+        <v>356.25</v>
       </c>
       <c r="E299" s="5">
-        <v>0</v>
+        <v>35.625</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -7542,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="D301" s="5">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -7568,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="D303" s="5">
-        <v>0</v>
+        <v>3094.75</v>
       </c>
       <c r="E303" s="5">
         <v>0</v>
@@ -7594,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="D305" s="5">
-        <v>0</v>
+        <v>374.0625</v>
       </c>
       <c r="E305" s="5">
         <v>0</v>
@@ -7629,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="D308" s="5">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E308" s="5">
         <v>0</v>
@@ -7655,10 +7676,10 @@
         <v>32</v>
       </c>
       <c r="D310" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E310" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -7681,10 +7702,10 @@
         <v>20.94</v>
       </c>
       <c r="D312" s="5">
-        <v>0</v>
+        <v>261.75</v>
       </c>
       <c r="E312" s="5">
-        <v>0</v>
+        <v>26.175000000000001</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -7707,10 +7728,10 @@
         <v>11.625</v>
       </c>
       <c r="D314" s="5">
-        <v>0</v>
+        <v>145.3125</v>
       </c>
       <c r="E314" s="5">
-        <v>0</v>
+        <v>14.5312</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -7736,7 +7757,7 @@
         <v>101</v>
       </c>
       <c r="B317" s="6">
-        <v>0</v>
+        <v>117.6</v>
       </c>
       <c r="C317" s="6">
         <v>0</v>
@@ -7762,7 +7783,7 @@
         <v>115</v>
       </c>
       <c r="B319" s="6">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C319" s="6">
         <v>0</v>
@@ -7788,7 +7809,7 @@
         <v>150</v>
       </c>
       <c r="B321" s="6">
-        <v>0</v>
+        <v>121.6</v>
       </c>
       <c r="C321" s="6">
         <v>0</v>
@@ -7814,7 +7835,7 @@
         <v>131</v>
       </c>
       <c r="B323" s="6">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="C323" s="6">
         <v>0</v>
@@ -7840,7 +7861,7 @@
         <v>118</v>
       </c>
       <c r="B325" s="6">
-        <v>0</v>
+        <v>371.52</v>
       </c>
       <c r="C325" s="6">
         <v>0</v>
@@ -7866,7 +7887,7 @@
         <v>118</v>
       </c>
       <c r="B327" s="6">
-        <v>0</v>
+        <v>49.2</v>
       </c>
       <c r="C327" s="6">
         <v>0</v>
@@ -7892,7 +7913,7 @@
         <v>151</v>
       </c>
       <c r="B329" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C329" s="6">
         <v>0</v>
@@ -7918,7 +7939,7 @@
         <v>132</v>
       </c>
       <c r="B331" s="6">
-        <v>0</v>
+        <v>228.48000000000002</v>
       </c>
       <c r="C331" s="6">
         <v>0</v>
@@ -7944,7 +7965,7 @@
         <v>154</v>
       </c>
       <c r="B333" s="6">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="C333" s="6">
         <v>0</v>
@@ -7970,7 +7991,7 @@
         <v>152</v>
       </c>
       <c r="B335" s="6">
-        <v>0</v>
+        <v>42.239999999999995</v>
       </c>
       <c r="C335" s="6">
         <v>0</v>
@@ -7996,7 +8017,7 @@
         <v>131</v>
       </c>
       <c r="B337" s="6">
-        <v>0</v>
+        <v>949.76</v>
       </c>
       <c r="C337" s="6">
         <v>0</v>
@@ -8022,10 +8043,10 @@
         <v>151</v>
       </c>
       <c r="B339" s="6">
-        <v>0</v>
+        <v>614.4</v>
       </c>
       <c r="C339" s="6">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D339" s="5">
         <v>768</v>
@@ -8048,7 +8069,7 @@
         <v>124</v>
       </c>
       <c r="B341" s="6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C341" s="6">
         <v>0</v>
@@ -8074,7 +8095,7 @@
         <v>151</v>
       </c>
       <c r="B343" s="6">
-        <v>0</v>
+        <v>222.4</v>
       </c>
       <c r="C343" s="6">
         <v>0</v>
@@ -8100,7 +8121,7 @@
         <v>116</v>
       </c>
       <c r="B345" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C345" s="6">
         <v>0</v>
@@ -8126,7 +8147,7 @@
         <v>131</v>
       </c>
       <c r="B347" s="6">
-        <v>0</v>
+        <v>472.32</v>
       </c>
       <c r="C347" s="6">
         <v>0</v>
@@ -8152,7 +8173,7 @@
         <v>115</v>
       </c>
       <c r="B349" s="6">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C349" s="6">
         <v>0</v>
@@ -8178,7 +8199,7 @@
         <v>154</v>
       </c>
       <c r="B351" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C351" s="6">
         <v>0</v>
@@ -8204,7 +8225,7 @@
         <v>102</v>
       </c>
       <c r="B353" s="6">
-        <v>0</v>
+        <v>209.6</v>
       </c>
       <c r="C353" s="6">
         <v>0</v>
@@ -8230,7 +8251,7 @@
         <v>155</v>
       </c>
       <c r="B355" s="6">
-        <v>0</v>
+        <v>394.4</v>
       </c>
       <c r="C355" s="6">
         <v>0</v>
@@ -8256,7 +8277,7 @@
         <v>132</v>
       </c>
       <c r="B357" s="6">
-        <v>0</v>
+        <v>120.96</v>
       </c>
       <c r="C357" s="6">
         <v>0</v>
@@ -8282,7 +8303,7 @@
         <v>153</v>
       </c>
       <c r="B359" s="6">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C359" s="6">
         <v>0</v>
@@ -8317,7 +8338,7 @@
         <v>116</v>
       </c>
       <c r="B362" s="6">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="C362" s="6">
         <v>0</v>
@@ -8343,7 +8364,7 @@
         <v>101</v>
       </c>
       <c r="B364" s="6">
-        <v>0</v>
+        <v>117.6</v>
       </c>
       <c r="C364" s="6">
         <v>0</v>
@@ -8369,7 +8390,7 @@
         <v>115</v>
       </c>
       <c r="B366" s="6">
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="C366" s="6">
         <v>0</v>
@@ -8395,10 +8416,10 @@
         <v>117</v>
       </c>
       <c r="B368" s="6">
-        <v>0</v>
+        <v>8221.2000000000007</v>
       </c>
       <c r="C368" s="6">
-        <v>0</v>
+        <v>158.4</v>
       </c>
       <c r="D368" s="5">
         <v>10276.5</v>
@@ -8427,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="D370" s="5">
-        <v>0</v>
+        <v>496.875</v>
       </c>
       <c r="E370" s="5">
         <v>0</v>
@@ -8453,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="D372" s="5">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E372" s="5">
         <v>0</v>
@@ -8473,10 +8494,10 @@
         <v>118</v>
       </c>
       <c r="B374" s="6">
-        <v>0</v>
+        <v>412.8</v>
       </c>
       <c r="C374" s="6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="D374" s="5">
         <v>516</v>
@@ -8499,10 +8520,10 @@
         <v>118</v>
       </c>
       <c r="B376" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C376" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D376" s="5">
         <v>20</v>
@@ -8525,7 +8546,7 @@
         <v>152</v>
       </c>
       <c r="B378" s="6">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="C378" s="6">
         <v>0</v>
@@ -8551,7 +8572,7 @@
         <v>119</v>
       </c>
       <c r="B380" s="6">
-        <v>0</v>
+        <v>1793.6</v>
       </c>
       <c r="C380" s="6">
         <v>0</v>
@@ -8577,10 +8598,10 @@
         <v>118</v>
       </c>
       <c r="B382" s="6">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="C382" s="6">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="D382" s="5">
         <v>1080</v>
@@ -8603,10 +8624,10 @@
         <v>123</v>
       </c>
       <c r="B384" s="6">
-        <v>0</v>
+        <v>435.68</v>
       </c>
       <c r="C384" s="6">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="D384" s="5">
         <v>544.6</v>
@@ -8629,7 +8650,7 @@
         <v>132</v>
       </c>
       <c r="B386" s="6">
-        <v>0</v>
+        <v>806.4</v>
       </c>
       <c r="C386" s="6">
         <v>0</v>
@@ -8655,7 +8676,7 @@
         <v>133</v>
       </c>
       <c r="B388" s="6">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="C388" s="6">
         <v>0</v>
@@ -8681,7 +8702,7 @@
         <v>154</v>
       </c>
       <c r="B390" s="6">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="C390" s="6">
         <v>0</v>
@@ -8707,7 +8728,7 @@
         <v>101</v>
       </c>
       <c r="B392" s="6">
-        <v>0</v>
+        <v>185.28</v>
       </c>
       <c r="C392" s="6">
         <v>0</v>
@@ -8733,7 +8754,7 @@
         <v>124</v>
       </c>
       <c r="B394" s="6">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="C394" s="6">
         <v>0</v>
@@ -8759,10 +8780,10 @@
         <v>124</v>
       </c>
       <c r="B396" s="6">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="C396" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D396" s="5">
         <v>860</v>
@@ -8785,7 +8806,7 @@
         <v>151</v>
       </c>
       <c r="B398" s="6">
-        <v>0</v>
+        <v>250.56</v>
       </c>
       <c r="C398" s="6">
         <v>0</v>
@@ -8811,10 +8832,10 @@
         <v>116</v>
       </c>
       <c r="B400" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C400" s="6">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D400" s="5">
         <v>225</v>
@@ -8837,7 +8858,7 @@
         <v>131</v>
       </c>
       <c r="B402" s="6">
-        <v>0</v>
+        <v>586.88</v>
       </c>
       <c r="C402" s="6">
         <v>0</v>
@@ -8863,7 +8884,7 @@
         <v>127</v>
       </c>
       <c r="B404" s="6">
-        <v>0</v>
+        <v>218.4</v>
       </c>
       <c r="C404" s="6">
         <v>0</v>
@@ -8889,7 +8910,7 @@
         <v>115</v>
       </c>
       <c r="B406" s="6">
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="C406" s="6">
         <v>0</v>
@@ -8915,10 +8936,10 @@
         <v>128</v>
       </c>
       <c r="B408" s="6">
-        <v>0</v>
+        <v>353.4</v>
       </c>
       <c r="C408" s="6">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="D408" s="5">
         <v>441.75</v>
@@ -8941,10 +8962,10 @@
         <v>154</v>
       </c>
       <c r="B410" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C410" s="6">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="D410" s="5">
         <v>225</v>
@@ -8967,7 +8988,7 @@
         <v>102</v>
       </c>
       <c r="B412" s="6">
-        <v>0</v>
+        <v>1360.8</v>
       </c>
       <c r="C412" s="6">
         <v>0</v>
@@ -8993,7 +9014,7 @@
         <v>129</v>
       </c>
       <c r="B414" s="6">
-        <v>0</v>
+        <v>604.79999999999995</v>
       </c>
       <c r="C414" s="6">
         <v>0</v>
@@ -9019,7 +9040,7 @@
         <v>103</v>
       </c>
       <c r="B416" s="6">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="C416" s="6">
         <v>0</v>
@@ -9045,7 +9066,7 @@
         <v>128</v>
       </c>
       <c r="B418" s="6">
-        <v>0</v>
+        <v>3565.152</v>
       </c>
       <c r="C418" s="6">
         <v>0</v>
@@ -9071,10 +9092,10 @@
         <v>152</v>
       </c>
       <c r="B420" s="6">
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="C420" s="6">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D420" s="5">
         <v>69.75</v>
@@ -9097,10 +9118,10 @@
         <v>130</v>
       </c>
       <c r="B422" s="6">
-        <v>0</v>
+        <v>357.6</v>
       </c>
       <c r="C422" s="6">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="D422" s="5">
         <v>447</v>
@@ -9123,7 +9144,7 @@
         <v>122</v>
       </c>
       <c r="B424" s="6">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="C424" s="6">
         <v>0</v>
@@ -9149,7 +9170,7 @@
         <v>128</v>
       </c>
       <c r="B426" s="6">
-        <v>0</v>
+        <v>638.4</v>
       </c>
       <c r="C426" s="6">
         <v>0</v>
@@ -9175,10 +9196,10 @@
         <v>153</v>
       </c>
       <c r="B428" s="6">
-        <v>0</v>
+        <v>121.6</v>
       </c>
       <c r="C428" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="D428" s="5">
         <v>152</v>
@@ -9210,7 +9231,7 @@
         <v>150</v>
       </c>
       <c r="B431" s="6">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C431" s="6">
         <v>0</v>
@@ -9236,7 +9257,7 @@
         <v>101</v>
       </c>
       <c r="B433" s="6">
-        <v>0</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C433" s="6">
         <v>0</v>
@@ -9262,7 +9283,7 @@
         <v>150</v>
       </c>
       <c r="B435" s="6">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C435" s="6">
         <v>0</v>
@@ -9288,10 +9309,10 @@
         <v>156</v>
       </c>
       <c r="B437" s="6">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="C437" s="6">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="D437" s="5">
         <v>397.5</v>
@@ -9314,7 +9335,7 @@
         <v>121</v>
       </c>
       <c r="B439" s="6">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="C439" s="6">
         <v>0</v>
@@ -9340,7 +9361,7 @@
         <v>118</v>
       </c>
       <c r="B441" s="6">
-        <v>0</v>
+        <v>518.4</v>
       </c>
       <c r="C441" s="6">
         <v>0</v>
@@ -9366,7 +9387,7 @@
         <v>133</v>
       </c>
       <c r="B443" s="6">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="C443" s="6">
         <v>0</v>
@@ -9392,7 +9413,7 @@
         <v>125</v>
       </c>
       <c r="B445" s="6">
-        <v>0</v>
+        <v>353.64</v>
       </c>
       <c r="C445" s="6">
         <v>0</v>
@@ -9418,7 +9439,7 @@
         <v>131</v>
       </c>
       <c r="B447" s="6">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="C447" s="6">
         <v>0</v>
@@ -9444,7 +9465,7 @@
         <v>151</v>
       </c>
       <c r="B449" s="6">
-        <v>0</v>
+        <v>1670.4</v>
       </c>
       <c r="C449" s="6">
         <v>0</v>
@@ -9470,10 +9491,10 @@
         <v>116</v>
       </c>
       <c r="B451" s="6">
-        <v>0</v>
+        <v>475.2</v>
       </c>
       <c r="C451" s="6">
-        <v>0</v>
+        <v>89.6</v>
       </c>
       <c r="D451" s="5">
         <v>594</v>
@@ -9496,10 +9517,10 @@
         <v>130</v>
       </c>
       <c r="B453" s="6">
-        <v>0</v>
+        <v>30.72</v>
       </c>
       <c r="C453" s="6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D453" s="5">
         <v>38.4</v>
@@ -9522,7 +9543,7 @@
         <v>127</v>
       </c>
       <c r="B455" s="6">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="C455" s="6">
         <v>0</v>
@@ -9548,10 +9569,10 @@
         <v>127</v>
       </c>
       <c r="B457" s="6">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="C457" s="6">
-        <v>0</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="D457" s="5">
         <v>1140</v>
@@ -9574,7 +9595,7 @@
         <v>128</v>
       </c>
       <c r="B459" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C459" s="6">
         <v>0</v>
@@ -9600,7 +9621,7 @@
         <v>129</v>
       </c>
       <c r="B461" s="6">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C461" s="6">
         <v>0</v>
@@ -9626,7 +9647,7 @@
         <v>123</v>
       </c>
       <c r="B463" s="6">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="C463" s="6">
         <v>0</v>
@@ -9652,7 +9673,7 @@
         <v>102</v>
       </c>
       <c r="B465" s="6">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C465" s="6">
         <v>0</v>
@@ -9678,10 +9699,10 @@
         <v>103</v>
       </c>
       <c r="B467" s="6">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="C467" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D467" s="5">
         <v>162</v>
@@ -9704,10 +9725,10 @@
         <v>102</v>
       </c>
       <c r="B469" s="6">
-        <v>0</v>
+        <v>51.52</v>
       </c>
       <c r="C469" s="6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="D469" s="5">
         <v>64.400000000000006</v>
@@ -9730,10 +9751,10 @@
         <v>132</v>
       </c>
       <c r="B471" s="6">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="C471" s="6">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="D471" s="5">
         <v>630</v>
@@ -9756,7 +9777,7 @@
         <v>124</v>
       </c>
       <c r="B473" s="6">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="C473" s="6">
         <v>0</v>
@@ -9773,16 +9794,16 @@
         <v>28</v>
       </c>
       <c r="B474" s="6">
-        <v>82303.3</v>
+        <v>148941.61199999996</v>
       </c>
       <c r="C474" s="6">
-        <v>5863.7275000000009</v>
+        <v>7617.3275000000003</v>
       </c>
       <c r="D474" s="5">
-        <v>83297.89</v>
+        <v>186177.01500000004</v>
       </c>
       <c r="E474" s="5">
-        <v>2192</v>
+        <v>9521.6594000000005</v>
       </c>
     </row>
   </sheetData>
